--- a/反復計画書/04_反復計画書.xlsx
+++ b/反復計画書/04_反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83252B16-97A3-40E1-895C-4A48FCAED000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DD19C-9A9A-4B80-AD3E-1C652BEC0B4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="405" windowWidth="14115" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="210" windowWidth="14115" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -414,26 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チケット情報の表示ができる
-予約情報の表示ができる</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.5日間</t>
     <rPh sb="3" eb="5">
       <t>ニチカン</t>
@@ -494,6 +474,102 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動販売機システム：商品購入、在庫管理、釣銭補充</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハンバイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツリセン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(新規作成)
+WBS&amp;ガントチャート(新規作成)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+反復振り返り結果（新規作成）</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,7 +580,8 @@
 システム分析書(更新)
 設計仕様書(更新)
 テスト計画書(更新)
-テスト済のソースコード(更新)</t>
+テスト済のソースコード(更新)
+反復振り返り結果（新規作成）</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
     </rPh>
@@ -541,17 +618,79 @@
     <rPh sb="72" eb="73">
       <t>スミ</t>
     </rPh>
+    <rPh sb="91" eb="93">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケットの予約とチケット情報の一覧照会</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット予約システム：チケットの予約とチケット情報の一覧照会</t>
+    <rPh sb="4" eb="6">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/15の午前中は予備時間
+おつりの最適化：900円のおつり→500円1枚と100円4枚</t>
+    <rPh sb="5" eb="8">
+      <t>ゴゼンチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>要求書（新規作成）
-反復計画書(新規作成)
+反復計画書(更新）
 WBS&amp;ガントチャート(新規作成)
 要求仕様書(新規作成)
 システム分析書(新規作成)
 設計仕様書(新規作成)
 テスト計画書(新規作成)
-テスト済のソースコード(新規作成)</t>
+テスト済のソースコード(新規作成)
+反復振り返り結果（新規作成）</t>
     <rPh sb="0" eb="3">
       <t>ヨウキュウショ</t>
     </rPh>
@@ -567,85 +706,50 @@
     <rPh sb="12" eb="15">
       <t>ケイカクショ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="38" eb="40">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
       <t>シンキ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="118" eb="120">
       <t>サクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケット予約システム：チケット情報、予約表の表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動販売機システム：商品購入、在庫管理、釣銭補充</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ハンバイキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツリセン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1493,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1518,7 +1622,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1527,7 +1631,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1591,13 +1695,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1606,38 +1710,40 @@
         <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1919,14 +2025,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1942,6 +2042,8 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1992,6 +2094,18 @@
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2094,6 +2208,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -2103,6 +2223,10 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0DF2B58-6078-4642-8E41-1E7433D21CDB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2116,22 +2240,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2404E3D6-C5E8-4A32-932E-E10A1ED3B4C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>